--- a/Code/Results/Cases/Case_3_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_228/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.22174648602818</v>
+        <v>12.3949551318557</v>
       </c>
       <c r="C2">
-        <v>13.82745237777081</v>
+        <v>8.772861809360174</v>
       </c>
       <c r="D2">
-        <v>4.218822541165403</v>
+        <v>3.838276894093157</v>
       </c>
       <c r="F2">
-        <v>16.04076487598238</v>
+        <v>19.49238989544178</v>
       </c>
       <c r="G2">
-        <v>2.054529484647109</v>
+        <v>3.594448496529577</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.54611957965163</v>
+        <v>15.81695941436856</v>
       </c>
       <c r="O2">
-        <v>12.05685037339472</v>
+        <v>17.34286194081059</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.90941848272844</v>
+        <v>11.78358033903897</v>
       </c>
       <c r="C3">
-        <v>13.04486018584805</v>
+        <v>8.369125340180023</v>
       </c>
       <c r="D3">
-        <v>4.036883461393925</v>
+        <v>3.768808920947571</v>
       </c>
       <c r="F3">
-        <v>15.47168120666325</v>
+        <v>19.47647288460611</v>
       </c>
       <c r="G3">
-        <v>2.059409048594214</v>
+        <v>3.596321630334197</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.57963320386601</v>
+        <v>15.84310144985067</v>
       </c>
       <c r="O3">
-        <v>11.86564553242404</v>
+        <v>17.39577011495001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05608764611015</v>
+        <v>11.39219079140143</v>
       </c>
       <c r="C4">
-        <v>12.53912717836432</v>
+        <v>8.109650073007284</v>
       </c>
       <c r="D4">
-        <v>3.920515865410764</v>
+        <v>3.725070534068491</v>
       </c>
       <c r="F4">
-        <v>15.13195083447998</v>
+        <v>19.47405995146817</v>
       </c>
       <c r="G4">
-        <v>2.062499205958971</v>
+        <v>3.597533071982244</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.60426955526112</v>
+        <v>15.86099454005563</v>
       </c>
       <c r="O4">
-        <v>11.763073789772</v>
+        <v>17.43381126767999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.69635886010834</v>
+        <v>11.22885844739228</v>
       </c>
       <c r="C5">
-        <v>12.32678059383597</v>
+        <v>8.00109133336843</v>
       </c>
       <c r="D5">
-        <v>3.871964358224258</v>
+        <v>3.706987782928316</v>
       </c>
       <c r="F5">
-        <v>14.99613970647495</v>
+        <v>19.47492676981049</v>
       </c>
       <c r="G5">
-        <v>2.063782652624046</v>
+        <v>3.598042213923302</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.61530531621881</v>
+        <v>15.86874990615548</v>
       </c>
       <c r="O5">
-        <v>11.72493083385215</v>
+        <v>17.45070385563394</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.63590128887862</v>
+        <v>11.20151148818259</v>
       </c>
       <c r="C6">
-        <v>12.29114569107637</v>
+        <v>7.982897851722111</v>
       </c>
       <c r="D6">
-        <v>3.86383541737024</v>
+        <v>3.703969926499477</v>
       </c>
       <c r="F6">
-        <v>14.97375300942326</v>
+        <v>19.47518238683791</v>
       </c>
       <c r="G6">
-        <v>2.063997243430489</v>
+        <v>3.598127692287191</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.61719727211699</v>
+        <v>15.87006570936817</v>
       </c>
       <c r="O6">
-        <v>11.71881556153524</v>
+        <v>17.45359264426064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05128479843201</v>
+        <v>11.3900033051759</v>
       </c>
       <c r="C7">
-        <v>12.53628860007784</v>
+        <v>8.108197300237235</v>
       </c>
       <c r="D7">
-        <v>3.919865603669648</v>
+        <v>3.724827693845392</v>
       </c>
       <c r="F7">
-        <v>15.13010832459908</v>
+        <v>19.47406415307703</v>
       </c>
       <c r="G7">
-        <v>2.062516416377841</v>
+        <v>3.597539875748785</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.60441438512794</v>
+        <v>15.86109725292442</v>
       </c>
       <c r="O7">
-        <v>11.76254468710368</v>
+        <v>17.43403346572819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.77910465964942</v>
+        <v>12.18757691061988</v>
       </c>
       <c r="C8">
-        <v>13.56289269301572</v>
+        <v>8.636107064793427</v>
       </c>
       <c r="D8">
-        <v>4.157078500235508</v>
+        <v>3.814557557619335</v>
       </c>
       <c r="F8">
-        <v>15.8426505864494</v>
+        <v>19.4853743197102</v>
       </c>
       <c r="G8">
-        <v>2.056192753806997</v>
+        <v>3.595081652819814</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.55681769561583</v>
+        <v>15.82559132518008</v>
       </c>
       <c r="O8">
-        <v>11.98780666786213</v>
+        <v>17.35994794106133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.79184718895307</v>
+        <v>13.61791228746761</v>
       </c>
       <c r="C9">
-        <v>15.37331499669604</v>
+        <v>9.576152435320511</v>
       </c>
       <c r="D9">
-        <v>4.583849485646482</v>
+        <v>3.981337072348366</v>
       </c>
       <c r="F9">
-        <v>17.30847224515108</v>
+        <v>19.56588824727848</v>
       </c>
       <c r="G9">
-        <v>2.044513597637667</v>
+        <v>3.590745531114867</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.49682984119979</v>
+        <v>15.77054930045677</v>
       </c>
       <c r="O9">
-        <v>12.54959170328655</v>
+        <v>17.25901291558897</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.77941162279743</v>
+        <v>14.57999082515763</v>
       </c>
       <c r="C10">
-        <v>16.57754213801708</v>
+        <v>10.2051948350863</v>
       </c>
       <c r="D10">
-        <v>4.87241302209701</v>
+        <v>4.0975521704718</v>
       </c>
       <c r="F10">
-        <v>18.41681813664041</v>
+        <v>19.66037860331316</v>
       </c>
       <c r="G10">
-        <v>2.036335915809542</v>
+        <v>3.587852060946457</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.47473644935425</v>
+        <v>15.73896304994329</v>
       </c>
       <c r="O10">
-        <v>13.03765736719318</v>
+        <v>17.21222636261942</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.63531517545745</v>
+        <v>14.99726177108974</v>
       </c>
       <c r="C11">
-        <v>17.09784330277288</v>
+        <v>10.47743061470788</v>
       </c>
       <c r="D11">
-        <v>4.998023354394228</v>
+        <v>4.148910342505072</v>
       </c>
       <c r="F11">
-        <v>18.92598861009662</v>
+        <v>19.71094499626637</v>
       </c>
       <c r="G11">
-        <v>2.032694509139653</v>
+        <v>3.586598562668104</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.46983673077751</v>
+        <v>15.72650765016268</v>
       </c>
       <c r="O11">
-        <v>13.27622354704573</v>
+        <v>17.19694619571258</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.95255193977318</v>
+        <v>15.15226830916677</v>
       </c>
       <c r="C12">
-        <v>17.29090910242246</v>
+        <v>10.57848205739102</v>
       </c>
       <c r="D12">
-        <v>5.044760033983063</v>
+        <v>4.168130654568144</v>
       </c>
       <c r="F12">
-        <v>19.11938602419197</v>
+        <v>19.73117234163529</v>
       </c>
       <c r="G12">
-        <v>2.031326154804721</v>
+        <v>3.586132870579031</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.46875481137425</v>
+        <v>15.72206552327475</v>
       </c>
       <c r="O12">
-        <v>13.36894046262956</v>
+        <v>17.1920273408828</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.88453406151485</v>
+        <v>15.11901955285182</v>
       </c>
       <c r="C13">
-        <v>17.24950508134348</v>
+        <v>10.55680999133462</v>
       </c>
       <c r="D13">
-        <v>5.034731545489808</v>
+        <v>4.164001520148441</v>
       </c>
       <c r="F13">
-        <v>19.07771020985973</v>
+        <v>19.72676823739538</v>
       </c>
       <c r="G13">
-        <v>2.031620396784434</v>
+        <v>3.586232766984423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.46895288364883</v>
+        <v>15.72301001892141</v>
       </c>
       <c r="O13">
-        <v>13.34886659129108</v>
+        <v>17.19304806632179</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.66155185143749</v>
+        <v>15.01007484942866</v>
       </c>
       <c r="C14">
-        <v>17.11380632406824</v>
+        <v>10.4857852158623</v>
       </c>
       <c r="D14">
-        <v>5.001885105073995</v>
+        <v>4.150496237196406</v>
       </c>
       <c r="F14">
-        <v>18.94188845814269</v>
+        <v>19.71258756088111</v>
       </c>
       <c r="G14">
-        <v>2.032581726457104</v>
+        <v>3.586560070166559</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.46973202579684</v>
+        <v>15.72613669700042</v>
       </c>
       <c r="O14">
-        <v>13.28380381668931</v>
+        <v>17.19652411273313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.52407537753473</v>
+        <v>14.94294978846035</v>
       </c>
       <c r="C15">
-        <v>17.03017108073285</v>
+        <v>10.44201406179743</v>
       </c>
       <c r="D15">
-        <v>4.981657318947849</v>
+        <v>4.142193866865456</v>
       </c>
       <c r="F15">
-        <v>18.85876650945282</v>
+        <v>19.70404162527559</v>
       </c>
       <c r="G15">
-        <v>2.033171921900292</v>
+        <v>3.586761721051535</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.47031100215012</v>
+        <v>15.72808760040753</v>
       </c>
       <c r="O15">
-        <v>13.24426038816097</v>
+        <v>17.19876636698163</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.72251068598438</v>
+        <v>14.55230439261082</v>
       </c>
       <c r="C16">
-        <v>16.54298503312583</v>
+        <v>10.18712019733335</v>
       </c>
       <c r="D16">
-        <v>4.864088820134795</v>
+        <v>4.094164481277268</v>
       </c>
       <c r="F16">
-        <v>18.38363116108028</v>
+        <v>19.65722562075569</v>
       </c>
       <c r="G16">
-        <v>2.036575410665299</v>
+        <v>3.587935239070773</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.47516307935522</v>
+        <v>15.73981548383685</v>
       </c>
       <c r="O16">
-        <v>13.02239940194712</v>
+        <v>17.21334612725255</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.21846222022372</v>
+        <v>14.30737838563315</v>
       </c>
       <c r="C17">
-        <v>16.23705992839</v>
+        <v>10.0271576794699</v>
       </c>
       <c r="D17">
-        <v>4.790502894883208</v>
+        <v>4.064305576740109</v>
       </c>
       <c r="F17">
-        <v>18.0933261177291</v>
+        <v>19.63044009149671</v>
       </c>
       <c r="G17">
-        <v>2.038682973574247</v>
+        <v>3.588671196422972</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.47948183352425</v>
+        <v>15.74749974060709</v>
       </c>
       <c r="O17">
-        <v>12.89053298953584</v>
+        <v>17.22383106460238</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.9240013623518</v>
+        <v>14.16458828157495</v>
       </c>
       <c r="C18">
-        <v>16.05851041045766</v>
+        <v>9.933843090191512</v>
       </c>
       <c r="D18">
-        <v>4.747646291700627</v>
+        <v>4.046990133647161</v>
       </c>
       <c r="F18">
-        <v>17.9268253162307</v>
+        <v>19.61574825633779</v>
       </c>
       <c r="G18">
-        <v>2.039902639362363</v>
+        <v>3.589100409091545</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.48244862846111</v>
+        <v>15.752099656362</v>
       </c>
       <c r="O18">
-        <v>12.81624466649524</v>
+        <v>17.23042656908668</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.82351943474057</v>
+        <v>14.11591555817196</v>
       </c>
       <c r="C19">
-        <v>15.99761218238391</v>
+        <v>9.902024895683006</v>
       </c>
       <c r="D19">
-        <v>4.733044952688252</v>
+        <v>4.041103483887643</v>
       </c>
       <c r="F19">
-        <v>17.87053693146926</v>
+        <v>19.61089688041026</v>
       </c>
       <c r="G19">
-        <v>2.040316898909046</v>
+        <v>3.589246749420262</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.4835350698719</v>
+        <v>15.75368806728807</v>
       </c>
       <c r="O19">
-        <v>12.79135939419538</v>
+        <v>17.23275657002865</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.27258904122856</v>
+        <v>14.33364996587564</v>
       </c>
       <c r="C20">
-        <v>16.2698942486491</v>
+        <v>10.04432166372719</v>
       </c>
       <c r="D20">
-        <v>4.798391417663477</v>
+        <v>4.067498823220273</v>
       </c>
       <c r="F20">
-        <v>18.12418144408294</v>
+        <v>19.63321758521292</v>
       </c>
       <c r="G20">
-        <v>2.038457853955371</v>
+        <v>3.58859224121699</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.47897189707815</v>
+        <v>15.74666309992359</v>
       </c>
       <c r="O20">
-        <v>12.90440916334957</v>
+        <v>17.22265643368851</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.72723320375609</v>
+        <v>15.042156622661</v>
       </c>
       <c r="C21">
-        <v>17.15377183517391</v>
+        <v>10.50670249382945</v>
       </c>
       <c r="D21">
-        <v>5.011555512873333</v>
+        <v>4.154469335601774</v>
       </c>
       <c r="F21">
-        <v>18.98176762774566</v>
+        <v>19.71672358782583</v>
       </c>
       <c r="G21">
-        <v>2.032299080009074</v>
+        <v>3.586463689905982</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.46948191212794</v>
+        <v>15.72521087248786</v>
       </c>
       <c r="O21">
-        <v>13.30284986406126</v>
+        <v>17.19547954227737</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.63788474907754</v>
+        <v>15.48766672345959</v>
       </c>
       <c r="C22">
-        <v>17.70835316229347</v>
+        <v>10.7970016151259</v>
       </c>
       <c r="D22">
-        <v>5.146032289711599</v>
+        <v>4.20997654801986</v>
       </c>
       <c r="F22">
-        <v>19.54561960812658</v>
+        <v>19.77758180851043</v>
       </c>
       <c r="G22">
-        <v>2.028335178350276</v>
+        <v>3.585124883797746</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.46780437441803</v>
+        <v>15.71279005336308</v>
       </c>
       <c r="O22">
-        <v>13.5771045322879</v>
+        <v>17.18277530531245</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.15549488365082</v>
+        <v>15.25151545111302</v>
       </c>
       <c r="C23">
-        <v>17.41447429681489</v>
+        <v>10.64316221842164</v>
       </c>
       <c r="D23">
-        <v>5.074706483716012</v>
+        <v>4.180476720336497</v>
       </c>
       <c r="F23">
-        <v>19.24440975850005</v>
+        <v>19.74453009618871</v>
       </c>
       <c r="G23">
-        <v>2.030445445146995</v>
+        <v>3.585834656401109</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.46827450343602</v>
+        <v>15.71927315622194</v>
       </c>
       <c r="O23">
-        <v>13.42946445519594</v>
+        <v>17.18909182886657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.24813287697797</v>
+        <v>14.32177874247272</v>
       </c>
       <c r="C24">
-        <v>16.25505816560236</v>
+        <v>10.03656602859437</v>
       </c>
       <c r="D24">
-        <v>4.79482673177543</v>
+        <v>4.066055620250189</v>
       </c>
       <c r="F24">
-        <v>18.11023049671009</v>
+        <v>19.6319596755848</v>
       </c>
       <c r="G24">
-        <v>2.038559605561736</v>
+        <v>3.588627917858511</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.47920093461976</v>
+        <v>15.74704077778405</v>
       </c>
       <c r="O24">
-        <v>12.89813099993227</v>
+        <v>17.22318571667961</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.01673078701881</v>
+        <v>13.24611945128668</v>
       </c>
       <c r="C25">
-        <v>14.90554777872616</v>
+        <v>9.332446770950185</v>
       </c>
       <c r="D25">
-        <v>4.472689109856145</v>
+        <v>3.937278672855995</v>
       </c>
       <c r="F25">
-        <v>16.90571572922021</v>
+        <v>19.53787680651016</v>
       </c>
       <c r="G25">
-        <v>2.047599556545312</v>
+        <v>3.591867020534107</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.5093219718658</v>
+        <v>15.78388209241668</v>
       </c>
       <c r="O25">
-        <v>12.38448404826068</v>
+        <v>17.2815342395526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_228/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3949551318557</v>
+        <v>20.22174648602821</v>
       </c>
       <c r="C2">
-        <v>8.772861809360174</v>
+        <v>13.82745237777085</v>
       </c>
       <c r="D2">
-        <v>3.838276894093157</v>
+        <v>4.218822541165506</v>
       </c>
       <c r="F2">
-        <v>19.49238989544178</v>
+        <v>16.04076487598235</v>
       </c>
       <c r="G2">
-        <v>3.594448496529577</v>
+        <v>2.054529484647109</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.81695941436856</v>
+        <v>11.54611957965159</v>
       </c>
       <c r="O2">
-        <v>17.34286194081059</v>
+        <v>12.05685037339471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.78358033903897</v>
+        <v>18.90941848272848</v>
       </c>
       <c r="C3">
-        <v>8.369125340180023</v>
+        <v>13.04486018584811</v>
       </c>
       <c r="D3">
-        <v>3.768808920947571</v>
+        <v>4.036883461393806</v>
       </c>
       <c r="F3">
-        <v>19.47647288460611</v>
+        <v>15.4716812066632</v>
       </c>
       <c r="G3">
-        <v>3.596321630334197</v>
+        <v>2.059409048594212</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.84310144985067</v>
+        <v>11.57963320386594</v>
       </c>
       <c r="O3">
-        <v>17.39577011495001</v>
+        <v>11.86564553242395</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.39219079140143</v>
+        <v>18.05608764611021</v>
       </c>
       <c r="C4">
-        <v>8.109650073007284</v>
+        <v>12.53912717836427</v>
       </c>
       <c r="D4">
-        <v>3.725070534068491</v>
+        <v>3.920515865410822</v>
       </c>
       <c r="F4">
-        <v>19.47405995146817</v>
+        <v>15.13195083447982</v>
       </c>
       <c r="G4">
-        <v>3.597533071982244</v>
+        <v>2.062499205958837</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.86099454005563</v>
+        <v>11.60426955526106</v>
       </c>
       <c r="O4">
-        <v>17.43381126767999</v>
+        <v>11.76307378977187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.22885844739228</v>
+        <v>17.69635886010844</v>
       </c>
       <c r="C5">
-        <v>8.00109133336843</v>
+        <v>12.32678059383609</v>
       </c>
       <c r="D5">
-        <v>3.706987782928316</v>
+        <v>3.871964358224258</v>
       </c>
       <c r="F5">
-        <v>19.47492676981049</v>
+        <v>14.99613970647492</v>
       </c>
       <c r="G5">
-        <v>3.598042213923302</v>
+        <v>2.063782652623911</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.86874990615548</v>
+        <v>11.61530531621884</v>
       </c>
       <c r="O5">
-        <v>17.45070385563394</v>
+        <v>11.7249308338521</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.20151148818259</v>
+        <v>17.63590128887859</v>
       </c>
       <c r="C6">
-        <v>7.982897851722111</v>
+        <v>12.29114569107638</v>
       </c>
       <c r="D6">
-        <v>3.703969926499477</v>
+        <v>3.863835417370344</v>
       </c>
       <c r="F6">
-        <v>19.47518238683791</v>
+        <v>14.97375300942328</v>
       </c>
       <c r="G6">
-        <v>3.598127692287191</v>
+        <v>2.063997243430356</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.87006570936817</v>
+        <v>11.61719727211702</v>
       </c>
       <c r="O6">
-        <v>17.45359264426064</v>
+        <v>11.71881556153529</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.3900033051759</v>
+        <v>18.05128479843203</v>
       </c>
       <c r="C7">
-        <v>8.108197300237235</v>
+        <v>12.53628860007778</v>
       </c>
       <c r="D7">
-        <v>3.724827693845392</v>
+        <v>3.91986560366966</v>
       </c>
       <c r="F7">
-        <v>19.47406415307703</v>
+        <v>15.13010832459899</v>
       </c>
       <c r="G7">
-        <v>3.597539875748785</v>
+        <v>2.062516416377841</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.86109725292442</v>
+        <v>11.60441438512788</v>
       </c>
       <c r="O7">
-        <v>17.43403346572819</v>
+        <v>11.76254468710357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18757691061988</v>
+        <v>19.77910465964944</v>
       </c>
       <c r="C8">
-        <v>8.636107064793427</v>
+        <v>13.56289269301569</v>
       </c>
       <c r="D8">
-        <v>3.814557557619335</v>
+        <v>4.157078500235543</v>
       </c>
       <c r="F8">
-        <v>19.4853743197102</v>
+        <v>15.84265058644939</v>
       </c>
       <c r="G8">
-        <v>3.595081652819814</v>
+        <v>2.056192753806861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.82559132518008</v>
+        <v>11.5568176956159</v>
       </c>
       <c r="O8">
-        <v>17.35994794106133</v>
+        <v>11.98780666786213</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.61791228746761</v>
+        <v>22.79184718895307</v>
       </c>
       <c r="C9">
-        <v>9.576152435320511</v>
+        <v>15.37331499669607</v>
       </c>
       <c r="D9">
-        <v>3.981337072348366</v>
+        <v>4.583849485646489</v>
       </c>
       <c r="F9">
-        <v>19.56588824727848</v>
+        <v>17.30847224515104</v>
       </c>
       <c r="G9">
-        <v>3.590745531114867</v>
+        <v>2.0445135976374</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.77054930045677</v>
+        <v>11.49682984119972</v>
       </c>
       <c r="O9">
-        <v>17.25901291558897</v>
+        <v>12.54959170328648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.57999082515763</v>
+        <v>24.77941162279738</v>
       </c>
       <c r="C10">
-        <v>10.2051948350863</v>
+        <v>16.57754213801712</v>
       </c>
       <c r="D10">
-        <v>4.0975521704718</v>
+        <v>4.87241302209701</v>
       </c>
       <c r="F10">
-        <v>19.66037860331316</v>
+        <v>18.41681813664043</v>
       </c>
       <c r="G10">
-        <v>3.587852060946457</v>
+        <v>2.036335915809541</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.73896304994329</v>
+        <v>11.47473644935423</v>
       </c>
       <c r="O10">
-        <v>17.21222636261942</v>
+        <v>13.03765736719321</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.99726177108974</v>
+        <v>25.63531517545748</v>
       </c>
       <c r="C11">
-        <v>10.47743061470788</v>
+        <v>17.09784330277282</v>
       </c>
       <c r="D11">
-        <v>4.148910342505072</v>
+        <v>4.998023354394227</v>
       </c>
       <c r="F11">
-        <v>19.71094499626637</v>
+        <v>18.92598861009657</v>
       </c>
       <c r="G11">
-        <v>3.586598562668104</v>
+        <v>2.03269450913952</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.72650765016268</v>
+        <v>11.46983673077743</v>
       </c>
       <c r="O11">
-        <v>17.19694619571258</v>
+        <v>13.27622354704563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.15226830916677</v>
+        <v>25.95255193977314</v>
       </c>
       <c r="C12">
-        <v>10.57848205739102</v>
+        <v>17.29090910242233</v>
       </c>
       <c r="D12">
-        <v>4.168130654568144</v>
+        <v>5.044760033983127</v>
       </c>
       <c r="F12">
-        <v>19.73117234163529</v>
+        <v>19.11938602419201</v>
       </c>
       <c r="G12">
-        <v>3.586132870579031</v>
+        <v>2.031326154804589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.72206552327475</v>
+        <v>11.46875481137424</v>
       </c>
       <c r="O12">
-        <v>17.1920273408828</v>
+        <v>13.36894046262964</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.11901955285182</v>
+        <v>25.88453406151489</v>
       </c>
       <c r="C13">
-        <v>10.55680999133462</v>
+        <v>17.24950508134353</v>
       </c>
       <c r="D13">
-        <v>4.164001520148441</v>
+        <v>5.034731545489852</v>
       </c>
       <c r="F13">
-        <v>19.72676823739538</v>
+        <v>19.07771020985978</v>
       </c>
       <c r="G13">
-        <v>3.586232766984423</v>
+        <v>2.031620396784435</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.72301001892141</v>
+        <v>11.46895288364882</v>
       </c>
       <c r="O13">
-        <v>17.19304806632179</v>
+        <v>13.34886659129112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.01007484942866</v>
+        <v>25.66155185143755</v>
       </c>
       <c r="C14">
-        <v>10.4857852158623</v>
+        <v>17.11380632406817</v>
       </c>
       <c r="D14">
-        <v>4.150496237196406</v>
+        <v>5.001885105073996</v>
       </c>
       <c r="F14">
-        <v>19.71258756088111</v>
+        <v>18.94188845814269</v>
       </c>
       <c r="G14">
-        <v>3.586560070166559</v>
+        <v>2.032581726456836</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.72613669700042</v>
+        <v>11.46973202579687</v>
       </c>
       <c r="O14">
-        <v>17.19652411273313</v>
+        <v>13.28380381668932</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.94294978846035</v>
+        <v>25.52407537753461</v>
       </c>
       <c r="C15">
-        <v>10.44201406179743</v>
+        <v>17.03017108073289</v>
       </c>
       <c r="D15">
-        <v>4.142193866865456</v>
+        <v>4.981657318947923</v>
       </c>
       <c r="F15">
-        <v>19.70404162527559</v>
+        <v>18.85876650945282</v>
       </c>
       <c r="G15">
-        <v>3.586761721051535</v>
+        <v>2.033171921900024</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.72808760040753</v>
+        <v>11.47031100215015</v>
       </c>
       <c r="O15">
-        <v>17.19876636698163</v>
+        <v>13.24426038816101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.55230439261082</v>
+        <v>24.72251068598431</v>
       </c>
       <c r="C16">
-        <v>10.18712019733335</v>
+        <v>16.54298503312584</v>
       </c>
       <c r="D16">
-        <v>4.094164481277268</v>
+        <v>4.86408882013479</v>
       </c>
       <c r="F16">
-        <v>19.65722562075569</v>
+        <v>18.38363116108033</v>
       </c>
       <c r="G16">
-        <v>3.587935239070773</v>
+        <v>2.036575410665432</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.73981548383685</v>
+        <v>11.47516307935529</v>
       </c>
       <c r="O16">
-        <v>17.21334612725255</v>
+        <v>13.0223994019472</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.30737838563315</v>
+        <v>24.21846222022369</v>
       </c>
       <c r="C17">
-        <v>10.0271576794699</v>
+        <v>16.23705992838995</v>
       </c>
       <c r="D17">
-        <v>4.064305576740109</v>
+        <v>4.790502894883232</v>
       </c>
       <c r="F17">
-        <v>19.63044009149671</v>
+        <v>18.09332611772906</v>
       </c>
       <c r="G17">
-        <v>3.588671196422972</v>
+        <v>2.038682973573979</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.74749974060709</v>
+        <v>11.47948183352422</v>
       </c>
       <c r="O17">
-        <v>17.22383106460238</v>
+        <v>12.89053298953583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.16458828157495</v>
+        <v>23.92400136235183</v>
       </c>
       <c r="C18">
-        <v>9.933843090191512</v>
+        <v>16.0585104104578</v>
       </c>
       <c r="D18">
-        <v>4.046990133647161</v>
+        <v>4.747646291700726</v>
       </c>
       <c r="F18">
-        <v>19.61574825633779</v>
+        <v>17.92682531623072</v>
       </c>
       <c r="G18">
-        <v>3.589100409091545</v>
+        <v>2.039902639362227</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.752099656362</v>
+        <v>11.48244862846112</v>
       </c>
       <c r="O18">
-        <v>17.23042656908668</v>
+        <v>12.81624466649526</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.11591555817196</v>
+        <v>23.8235194347406</v>
       </c>
       <c r="C19">
-        <v>9.902024895683006</v>
+        <v>15.99761218238393</v>
       </c>
       <c r="D19">
-        <v>4.041103483887643</v>
+        <v>4.733044952688228</v>
       </c>
       <c r="F19">
-        <v>19.61089688041026</v>
+        <v>17.87053693146924</v>
       </c>
       <c r="G19">
-        <v>3.589246749420262</v>
+        <v>2.040316898909046</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.75368806728807</v>
+        <v>11.4835350698719</v>
       </c>
       <c r="O19">
-        <v>17.23275657002865</v>
+        <v>12.79135939419534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.33364996587564</v>
+        <v>24.27258904122856</v>
       </c>
       <c r="C20">
-        <v>10.04432166372719</v>
+        <v>16.26989424864908</v>
       </c>
       <c r="D20">
-        <v>4.067498823220273</v>
+        <v>4.798391417663492</v>
       </c>
       <c r="F20">
-        <v>19.63321758521292</v>
+        <v>18.12418144408293</v>
       </c>
       <c r="G20">
-        <v>3.58859224121699</v>
+        <v>2.038457853955371</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.74666309992359</v>
+        <v>11.47897189707809</v>
       </c>
       <c r="O20">
-        <v>17.22265643368851</v>
+        <v>12.90440916334953</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.042156622661</v>
+        <v>25.72723320375613</v>
       </c>
       <c r="C21">
-        <v>10.50670249382945</v>
+        <v>17.15377183517381</v>
       </c>
       <c r="D21">
-        <v>4.154469335601774</v>
+        <v>5.011555512873442</v>
       </c>
       <c r="F21">
-        <v>19.71672358782583</v>
+        <v>18.98176762774567</v>
       </c>
       <c r="G21">
-        <v>3.586463689905982</v>
+        <v>2.03229908000894</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.72521087248786</v>
+        <v>11.46948191212796</v>
       </c>
       <c r="O21">
-        <v>17.19547954227737</v>
+        <v>13.30284986406129</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.48766672345959</v>
+        <v>26.63788474907756</v>
       </c>
       <c r="C22">
-        <v>10.7970016151259</v>
+        <v>17.70835316229354</v>
       </c>
       <c r="D22">
-        <v>4.20997654801986</v>
+        <v>5.146032289711599</v>
       </c>
       <c r="F22">
-        <v>19.77758180851043</v>
+        <v>19.5456196081266</v>
       </c>
       <c r="G22">
-        <v>3.585124883797746</v>
+        <v>2.028335178350276</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.71279005336308</v>
+        <v>11.46780437441803</v>
       </c>
       <c r="O22">
-        <v>17.18277530531245</v>
+        <v>13.57710453228791</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25151545111302</v>
+        <v>26.15549488365082</v>
       </c>
       <c r="C23">
-        <v>10.64316221842164</v>
+        <v>17.41447429681494</v>
       </c>
       <c r="D23">
-        <v>4.180476720336497</v>
+        <v>5.074706483716041</v>
       </c>
       <c r="F23">
-        <v>19.74453009618871</v>
+        <v>19.24440975850007</v>
       </c>
       <c r="G23">
-        <v>3.585834656401109</v>
+        <v>2.030445445146861</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.71927315622194</v>
+        <v>11.46827450343601</v>
       </c>
       <c r="O23">
-        <v>17.18909182886657</v>
+        <v>13.42946445519594</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.32177874247272</v>
+        <v>24.24813287697798</v>
       </c>
       <c r="C24">
-        <v>10.03656602859437</v>
+        <v>16.25505816560234</v>
       </c>
       <c r="D24">
-        <v>4.066055620250189</v>
+        <v>4.794826731775453</v>
       </c>
       <c r="F24">
-        <v>19.6319596755848</v>
+        <v>18.11023049671003</v>
       </c>
       <c r="G24">
-        <v>3.588627917858511</v>
+        <v>2.038559605561735</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.74704077778405</v>
+        <v>11.47920093461976</v>
       </c>
       <c r="O24">
-        <v>17.22318571667961</v>
+        <v>12.89813099993225</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.24611945128668</v>
+        <v>22.01673078701883</v>
       </c>
       <c r="C25">
-        <v>9.332446770950185</v>
+        <v>14.90554777872623</v>
       </c>
       <c r="D25">
-        <v>3.937278672855995</v>
+        <v>4.472689109856138</v>
       </c>
       <c r="F25">
-        <v>19.53787680651016</v>
+        <v>16.90571572922014</v>
       </c>
       <c r="G25">
-        <v>3.591867020534107</v>
+        <v>2.047599556545177</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.78388209241668</v>
+        <v>11.5093219718658</v>
       </c>
       <c r="O25">
-        <v>17.2815342395526</v>
+        <v>12.38448404826061</v>
       </c>
     </row>
   </sheetData>
